--- a/biology/Botanique/Marantaceae/Marantaceae.xlsx
+++ b/biology/Botanique/Marantaceae/Marantaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Marantaceae (Marantacées) regroupe des plantes monocotylédones ; elle comprend 400 espèces réparties en 30 genres.
 Ce sont des plantes herbacées ou des lianes, rhizomateuses, parfois épiphytes, des régions subtropicales à tropicales.
@@ -515,10 +527,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le nom vient du genre Maranta donné en hommage au médecin et botaniste italien Bartolomeo Maranta (1500–1571), célèbre pour avoir écrit un livre sur l'intoxication[1].
-Noms vernaculaires
-Aux Antilles, en Amazonie et dans toute l'Amérique du Sud, l'espèce Goeppertia allouia est cultivée pour ses savoureux rhizomes. Cette plante est communément appelée "topinambur" ou "lerén" dans les pays hispanophones, "topinambour" en langue vernaculaire créole et "sweet corn root" dans les pays anglophones.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Maranta donné en hommage au médecin et botaniste italien Bartolomeo Maranta (1500–1571), célèbre pour avoir écrit un livre sur l'intoxication.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Marantaceae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marantaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux Antilles, en Amazonie et dans toute l'Amérique du Sud, l'espèce Goeppertia allouia est cultivée pour ses savoureux rhizomes. Cette plante est communément appelée "topinambur" ou "lerén" dans les pays hispanophones, "topinambour" en langue vernaculaire créole et "sweet corn root" dans les pays anglophones.
 Cependant, elle n'a rien à voir avec le Topinambour (Helianthus tuberosus). L'origine de la similitude du nom des deux plantes n'a pas encore été élucidée.
 Elle a un cycle végétatif long (environ 1 an), ce qui explique qu'elle ne soit pas cultivée à grande échelle.
 En Martinique et en Guadeloupe, ce "topinambour-pays" est très apprécié pour ses qualités gustatives.
@@ -526,38 +578,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Marantaceae</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marantaceae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Anatomie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'inflorescence des Marantaceae est originale. Il s'agit d'une panicule d‘inflorescences spiciformes, c'est-à-dire un racème composé d'inflorescences elles-mêmes racémeuses (drépaniums) d’inflorescences spiciformes, qui sont elles-mêmes des panicules de 
-diades (ou racème de drépaniums de diades)[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -579,12 +599,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence des Marantaceae est originale. Il s'agit d'une panicule d‘inflorescences spiciformes, c'est-à-dire un racème composé d'inflorescences elles-mêmes racémeuses (drépaniums) d’inflorescences spiciformes, qui sont elles-mêmes des panicules de 
+diades (ou racème de drépaniums de diades).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marantaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marantaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 février 2012)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 février 2012) :
 Afrocalathea  K.Schum. (1902)
 Calathea  G.Mey. (1818)
 Cominsia  Hemsl. (1891)
@@ -615,7 +671,7 @@
 Thalia  L. (1753)
 Thaumatococcus  Benth. (1883)
 Trachyphrynium  Benth. (1883)
-Selon Angiosperm Phylogeny Website                        (21 mai 2010)[4] :
+Selon Angiosperm Phylogeny Website                        (21 mai 2010) :
 Afrocalathea K.Schum.
 Ataenidia Gagnep.
 Calathea G.Mey.
@@ -648,7 +704,7 @@
 Thaumatococcus Benth.
 Thymocarpus Nicolson, Steyerm. &amp; Sivad.
 Trachyphrynium Benth.
-Selon NCBI  (22 avr. 2010)[5] :
+Selon NCBI  (22 avr. 2010) :
 Afrocalathea
 Ataenidia
 Calathea
@@ -678,7 +734,7 @@
 Thalia
 Thaumatococcus
 Trachyphrynium
-Selon DELTA Angio           (22 avr. 2010)[6] :
+Selon DELTA Angio           (22 avr. 2010) :
 Afrocalathea
 Ataenidia
 Calathea
@@ -710,7 +766,7 @@
 Thalia
 Thaumatococcus
 Trachyphrynium
-Selon ITIS      (22 avr. 2010)[7] :
+Selon ITIS      (22 avr. 2010) :
 Calathea  G.F.W. Mey.
 Donax  Lour.
 Maranta  L.
@@ -721,39 +777,41 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Marantaceae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marantaceae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des genres aux noms synonymes ou obsolètes et leur genre de référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon   [8]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon   
 Actoplanes K.Schum. (1902) = genre Donax  Lour. (1790)
 Allouya Plum. ex Aubl. (1775) = genre Maranta  Plum. ex L. (1753)
 Arundastrum Rumph. ex Kuntze(1891), nom. illeg. = genre Donax  Lour. (1790)
 Ataenidia  Gagnep. (1908) = genre Marantochloa  Brongn. ex Gris (1860)
 Bamburanta L.Linden (1900) = genre Trachyphrynium  Benth. (1883)
-Calathea G.Mey. (1818) = plusieurs espèces ont été reclassées dans le genre Goeppertia Nees (1831)[9]
+Calathea G.Mey. (1818) = plusieurs espèces ont été reclassées dans le genre Goeppertia Nees (1831)
 genre Clinogyne Salisb. ex Benth. (1883) = genre Marantochloa  Brongn. ex Gris (1860)
 Ctenophrynium K.Schum. (1902) = genre Saranthe  (Regel &amp; Körn.) Eichler (1884)
 Endocodon Raf. (1838) = Goeppertia Nees (1831)
